--- a/my-app/regionseng/11/hotels and restaurants/number of visitors.xlsx
+++ b/my-app/regionseng/11/hotels and restaurants/number of visitors.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F42EFCD7-2173-479D-8744-615DA4AA0DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B13E2463-C440-4B7D-B97A-87641C46BC68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" tabRatio="699" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,10 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="33">
-  <si>
-    <t>-</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="32">
   <si>
     <t>Total</t>
   </si>
@@ -62,9 +59,6 @@
     <t>_ - Magnitude nil</t>
   </si>
   <si>
-    <t>(Declared data)</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Number of visitors, </t>
     </r>
@@ -79,6 +73,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve"> Of which:</t>
+  </si>
+  <si>
     <t xml:space="preserve">  Recreation and rest</t>
   </si>
   <si>
@@ -91,55 +88,55 @@
     <t xml:space="preserve">  Other purpose</t>
   </si>
   <si>
-    <t xml:space="preserve"> Of which:</t>
+    <t>(Declared data)</t>
   </si>
   <si>
-    <t>Number of visitors in hotels and hotel type enterprises* by country and purpose of arrival in Mtskheta-Mtianeti, 2021 year</t>
+    <t>Number of visitors in hotels and hotel type enterprises* by country and purpose of arrival in Tbilisi, 2021 year</t>
   </si>
   <si>
-    <t>Number of visitors in hotels and hotel type enterprises* by country and purpose of arrival in Mtskheta-Mtianeti, 2006 year</t>
+    <t>Number of visitors in hotels and hotel type enterprises* by country and purpose of arrival in Tbilisi, 2006 year</t>
   </si>
   <si>
-    <t>Number of visitors in hotels and hotel type enterprises* by country and purpose of arrival in Mtskheta-Mtianeti, 2007 year</t>
+    <t>Number of visitors in hotels and hotel type enterprises* by country and purpose of arrival in Tbilisi, 2007 year</t>
   </si>
   <si>
-    <t>Number of visitors in hotels and hotel type enterprises* by country and purpose of arrival in Mtskheta-Mtianeti, 2008 year</t>
+    <t>Number of visitors in hotels and hotel type enterprises* by country and purpose of arrival in Tbilisi, 2008 year</t>
   </si>
   <si>
-    <t>Number of visitors in hotels and hotel type enterprises* by country and purpose of arrival in Mtskheta-Mtianeti, 2009 year</t>
+    <t>Number of visitors in hotels and hotel type enterprises* by country and purpose of arrival in Tbilisi, 2009 year</t>
   </si>
   <si>
-    <t>Number of visitors in hotels and hotel type enterprises* by country and purpose of arrival in Mtskheta-Mtianeti, 2010 year</t>
+    <t>Number of visitors in hotels and hotel type enterprises* by country and purpose of arrival in Tbilisi, 2010 year</t>
   </si>
   <si>
-    <t>Number of visitors in hotels and hotel type enterprises* by country and purpose of arrival in Mtskheta-Mtianeti, 2011 year</t>
+    <t>Number of visitors in hotels and hotel type enterprises* by country and purpose of arrival in Tbilisi, 2011 year</t>
   </si>
   <si>
-    <t>Number of visitors in hotels and hotel type enterprises* by country and purpose of arrival in Mtskheta-Mtianeti, 2012 year</t>
+    <t>Number of visitors in hotels and hotel type enterprises* by country and purpose of arrival in Tbilisi, 2012 year</t>
   </si>
   <si>
-    <t>Number of visitors in hotels and hotel type enterprises* by country and purpose of arrival in Mtskheta-Mtianeti, 2013 year</t>
+    <t>Number of visitors in hotels and hotel type enterprises* by country and purpose of arrival in Tbilisi, 2013 year</t>
   </si>
   <si>
-    <t>Number of visitors in hotels and hotel type enterprises* by country and purpose of arrival in Mtskheta-Mtianeti, 2014 year</t>
+    <t>Number of visitors in hotels and hotel type enterprises* by country and purpose of arrival in Tbilisi, 2014 year</t>
   </si>
   <si>
-    <t>Number of visitors in hotels and hotel type enterprises* by country and purpose of arrival in Mtskheta-Mtianeti, 2015 year</t>
+    <t>Number of visitors in hotels and hotel type enterprises* by country and purpose of arrival in Tbilisi, 2015 year</t>
   </si>
   <si>
-    <t>Number of visitors in hotels and hotel type enterprises* by country and purpose of arrival in Mtskheta-Mtianeti, 2016 year</t>
+    <t>Number of visitors in hotels and hotel type enterprises* by country and purpose of arrival in Tbilisi, 2016 year</t>
   </si>
   <si>
-    <t>Number of visitors in hotels and hotel type enterprises* by country and purpose of arrival in Mtskheta-Mtianeti, 2017 year</t>
+    <t>Number of visitors in hotels and hotel type enterprises* by country and purpose of arrival in Tbilisi, 2017 year</t>
   </si>
   <si>
-    <t>Number of visitors in hotels and hotel type enterprises* by country and purpose of arrival in Mtskheta-Mtianeti, 2018 year</t>
+    <t>Number of visitors in hotels and hotel type enterprises* by country and purpose of arrival in Tbilisi, 2018 year</t>
   </si>
   <si>
-    <t>Number of visitors in hotels and hotel type enterprises* by country and purpose of arrival in Mtskheta-Mtianeti, 2019 year</t>
+    <t>Number of visitors in hotels and hotel type enterprises* by country and purpose of arrival in Tbilisi, 2019 year</t>
   </si>
   <si>
-    <t>Number of visitors in hotels and hotel type enterprises* by country and purpose of arrival in Mtskheta-Mtianeti, 2020 year</t>
+    <t>Number of visitors in hotels and hotel type enterprises* by country and purpose of arrival in Tbilisi, 2020 year</t>
   </si>
 </sst>
 </file>
@@ -178,6 +175,13 @@
       <family val="2"/>
     </font>
     <font>
+      <i/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <name val="Arial"/>
@@ -192,13 +196,6 @@
     <font>
       <i/>
       <sz val="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -314,7 +311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -326,7 +323,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -336,13 +333,13 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -361,23 +358,24 @@
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="3" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -386,13 +384,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -746,77 +744,77 @@
     <col min="7" max="16384" width="9.125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
+    <row r="1" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="25"/>
+      <c r="B3" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-    </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="24"/>
-      <c r="B3" s="25" t="s">
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="30"/>
+    </row>
+    <row r="4" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="25"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="29"/>
-    </row>
-    <row r="4" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="24"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" s="6">
-        <v>215098</v>
+        <v>1204184</v>
       </c>
       <c r="C5" s="6">
-        <v>198731</v>
+        <v>647217</v>
       </c>
       <c r="D5" s="6">
-        <v>8112</v>
+        <v>303237</v>
       </c>
       <c r="E5" s="6">
-        <v>635</v>
+        <v>36103</v>
       </c>
       <c r="F5" s="6">
-        <v>7620</v>
+        <v>217627</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -826,47 +824,47 @@
     </row>
     <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="6">
-        <v>123164</v>
+        <v>480795</v>
       </c>
       <c r="C7" s="6">
-        <v>113804</v>
+        <v>254565</v>
       </c>
       <c r="D7" s="6">
-        <v>7570</v>
+        <v>91450</v>
       </c>
       <c r="E7" s="6">
-        <v>605</v>
+        <v>32152</v>
       </c>
       <c r="F7" s="6">
-        <v>1185</v>
+        <v>102628</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="6">
-        <v>91934</v>
+        <v>723389</v>
       </c>
       <c r="C8" s="6">
-        <v>84927</v>
+        <v>392652</v>
       </c>
       <c r="D8" s="6">
-        <v>542</v>
+        <v>211787</v>
       </c>
       <c r="E8" s="6">
-        <v>30</v>
+        <v>3951</v>
       </c>
       <c r="F8" s="6">
-        <v>6435</v>
+        <v>114999</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -876,62 +874,62 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="9">
-        <v>7760</v>
+        <v>49729</v>
       </c>
       <c r="C10" s="9">
-        <v>6661</v>
+        <v>33834</v>
       </c>
       <c r="D10" s="9">
-        <v>104</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>0</v>
+        <v>8732</v>
+      </c>
+      <c r="E10" s="9">
+        <v>784</v>
       </c>
       <c r="F10" s="9">
-        <v>995</v>
+        <v>6379</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" s="9">
-        <v>16430</v>
+        <v>107336</v>
       </c>
       <c r="C11" s="9">
-        <v>15705</v>
+        <v>76408</v>
       </c>
       <c r="D11" s="9">
-        <v>315</v>
+        <v>17546</v>
       </c>
       <c r="E11" s="9">
-        <v>20</v>
+        <v>449</v>
       </c>
       <c r="F11" s="9">
-        <v>390</v>
+        <v>12933</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" s="9">
-        <v>67744</v>
+        <v>566324</v>
       </c>
       <c r="C12" s="9">
-        <v>62561</v>
+        <v>282410</v>
       </c>
       <c r="D12" s="9">
-        <v>123</v>
+        <v>185509</v>
       </c>
       <c r="E12" s="9">
-        <v>10</v>
+        <v>2718</v>
       </c>
       <c r="F12" s="9">
-        <v>5050</v>
+        <v>95687</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -942,9 +940,9 @@
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
     </row>
-    <row r="14" spans="1:6" s="12" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -954,7 +952,7 @@
     </row>
     <row r="15" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1011,7 +1009,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1682620-4B9D-462B-912B-4B943F6EA162}">
   <dimension ref="A1:F140"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -1022,192 +1020,192 @@
     <col min="7" max="16384" width="9.125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
+    <row r="1" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="25"/>
+      <c r="B3" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-    </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="24"/>
-      <c r="B3" s="25" t="s">
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="30"/>
+    </row>
+    <row r="4" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="25"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="29"/>
-    </row>
-    <row r="4" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="24"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="18">
-        <v>55658</v>
-      </c>
-      <c r="C5" s="18">
-        <v>44600</v>
-      </c>
-      <c r="D5" s="18">
-        <v>10242</v>
-      </c>
-      <c r="E5" s="18">
         <v>0</v>
       </c>
-      <c r="F5" s="18">
-        <v>816</v>
+      <c r="B5" s="16">
+        <v>421886</v>
+      </c>
+      <c r="C5" s="16">
+        <v>99408</v>
+      </c>
+      <c r="D5" s="16">
+        <v>199338</v>
+      </c>
+      <c r="E5" s="16">
+        <v>1952</v>
+      </c>
+      <c r="F5" s="16">
+        <v>121188</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
+        <v>1</v>
+      </c>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="18">
-        <v>25820</v>
-      </c>
-      <c r="C7" s="18">
-        <v>18294</v>
-      </c>
-      <c r="D7" s="18">
-        <v>6748</v>
-      </c>
-      <c r="E7" s="18">
-        <v>0</v>
-      </c>
-      <c r="F7" s="18">
-        <v>778</v>
+        <v>2</v>
+      </c>
+      <c r="B7" s="16">
+        <v>123293</v>
+      </c>
+      <c r="C7" s="16">
+        <v>37532</v>
+      </c>
+      <c r="D7" s="16">
+        <v>40076</v>
+      </c>
+      <c r="E7" s="16">
+        <v>919</v>
+      </c>
+      <c r="F7" s="16">
+        <v>44766</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="18">
-        <v>29838</v>
-      </c>
-      <c r="C8" s="18">
-        <v>26306</v>
-      </c>
-      <c r="D8" s="18">
-        <v>3494</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="18">
-        <v>38</v>
+        <v>3</v>
+      </c>
+      <c r="B8" s="16">
+        <v>298593</v>
+      </c>
+      <c r="C8" s="16">
+        <v>61876</v>
+      </c>
+      <c r="D8" s="16">
+        <v>159262</v>
+      </c>
+      <c r="E8" s="16">
+        <v>1033</v>
+      </c>
+      <c r="F8" s="16">
+        <v>76422</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="20"/>
+        <v>1</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="19">
-        <v>2345</v>
-      </c>
-      <c r="C10" s="19">
-        <v>2160</v>
-      </c>
-      <c r="D10" s="19">
-        <v>161</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" s="19">
-        <v>24</v>
+        <v>4</v>
+      </c>
+      <c r="B10" s="17">
+        <v>89000</v>
+      </c>
+      <c r="C10" s="17">
+        <v>14957</v>
+      </c>
+      <c r="D10" s="17">
+        <v>43468</v>
+      </c>
+      <c r="E10" s="17">
+        <v>336</v>
+      </c>
+      <c r="F10" s="17">
+        <v>30239</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="19">
-        <v>16547</v>
-      </c>
-      <c r="C11" s="19">
-        <v>14844</v>
-      </c>
-      <c r="D11" s="19">
-        <v>1699</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11" s="19">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="B11" s="17">
+        <v>109861</v>
+      </c>
+      <c r="C11" s="17">
+        <v>23590</v>
+      </c>
+      <c r="D11" s="17">
+        <v>58049</v>
+      </c>
+      <c r="E11" s="17">
+        <v>487</v>
+      </c>
+      <c r="F11" s="17">
+        <v>27735</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="19">
-        <v>10946</v>
-      </c>
-      <c r="C12" s="19">
-        <v>9302</v>
-      </c>
-      <c r="D12" s="19">
-        <v>1634</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F12" s="19">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="B12" s="17">
+        <v>99732</v>
+      </c>
+      <c r="C12" s="17">
+        <v>23329</v>
+      </c>
+      <c r="D12" s="17">
+        <v>57745</v>
+      </c>
+      <c r="E12" s="17">
+        <v>210</v>
+      </c>
+      <c r="F12" s="17">
+        <v>18448</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1218,9 +1216,9 @@
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
     </row>
-    <row r="14" spans="1:6" s="12" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1230,7 +1228,7 @@
     </row>
     <row r="15" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1315,7 +1313,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{194A39D8-BBDA-4209-BC93-4D3AC633A889}">
   <dimension ref="A1:F140"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -1326,77 +1324,77 @@
     <col min="7" max="16384" width="9.125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
+    <row r="1" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="25"/>
+      <c r="B3" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-    </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="24"/>
-      <c r="B3" s="25" t="s">
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="30"/>
+    </row>
+    <row r="4" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="25"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="29"/>
-    </row>
-    <row r="4" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="24"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" s="16">
-        <v>43788</v>
+        <v>333336</v>
       </c>
       <c r="C5" s="16">
-        <v>33197</v>
+        <v>59856</v>
       </c>
       <c r="D5" s="16">
-        <v>7332</v>
+        <v>162364</v>
       </c>
       <c r="E5" s="16">
-        <v>0</v>
+        <v>1340</v>
       </c>
       <c r="F5" s="16">
-        <v>3259</v>
+        <v>109776</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
@@ -1406,47 +1404,47 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="16">
-        <v>18182</v>
+        <v>103742</v>
       </c>
       <c r="C7" s="16">
-        <v>9554</v>
+        <v>7555</v>
       </c>
       <c r="D7" s="16">
-        <v>5526</v>
+        <v>33886</v>
       </c>
       <c r="E7" s="16">
-        <v>0</v>
+        <v>1095</v>
       </c>
       <c r="F7" s="16">
-        <v>3102</v>
+        <v>61206</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="16">
-        <v>25606</v>
+        <v>229594</v>
       </c>
       <c r="C8" s="16">
-        <v>23643</v>
+        <v>52301</v>
       </c>
       <c r="D8" s="16">
-        <v>1806</v>
+        <v>128478</v>
       </c>
       <c r="E8" s="16">
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="F8" s="16">
-        <v>157</v>
+        <v>48570</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
@@ -1456,62 +1454,62 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="17">
-        <v>4086</v>
+        <v>71401</v>
       </c>
       <c r="C10" s="17">
-        <v>3966</v>
+        <v>13207</v>
       </c>
       <c r="D10" s="17">
-        <v>113</v>
+        <v>40564</v>
       </c>
       <c r="E10" s="17">
         <v>0</v>
       </c>
       <c r="F10" s="17">
-        <v>7</v>
+        <v>17630</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" s="17">
-        <v>6305</v>
+        <v>89620</v>
       </c>
       <c r="C11" s="17">
-        <v>5463</v>
+        <v>20541</v>
       </c>
       <c r="D11" s="17">
-        <v>700</v>
+        <v>53886</v>
       </c>
       <c r="E11" s="17">
-        <v>0</v>
+        <v>233</v>
       </c>
       <c r="F11" s="17">
-        <v>142</v>
+        <v>14960</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" s="17">
-        <v>15215</v>
+        <v>68573</v>
       </c>
       <c r="C12" s="17">
-        <v>14214</v>
+        <v>18553</v>
       </c>
       <c r="D12" s="17">
-        <v>993</v>
+        <v>34028</v>
       </c>
       <c r="E12" s="17">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F12" s="17">
-        <v>8</v>
+        <v>15980</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1522,9 +1520,9 @@
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
     </row>
-    <row r="14" spans="1:6" s="12" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1534,7 +1532,7 @@
     </row>
     <row r="15" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1619,7 +1617,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F194196-3F46-43D6-BE30-6E47A517C20F}">
   <dimension ref="A1:F140"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -1630,127 +1628,127 @@
     <col min="7" max="16384" width="9.125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
+    <row r="1" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="25"/>
+      <c r="B3" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-    </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="24"/>
-      <c r="B3" s="25" t="s">
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="30"/>
+    </row>
+    <row r="4" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="25"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="29"/>
-    </row>
-    <row r="4" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="24"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" s="16">
-        <v>26961</v>
+        <v>280404</v>
       </c>
       <c r="C5" s="16">
-        <v>21165</v>
+        <v>34232</v>
       </c>
       <c r="D5" s="16">
-        <v>4572</v>
+        <v>186844</v>
       </c>
       <c r="E5" s="16">
-        <v>0</v>
+        <v>3881</v>
       </c>
       <c r="F5" s="16">
-        <v>1224</v>
+        <v>55447</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
+        <v>1</v>
+      </c>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="16">
-        <v>14603</v>
+        <v>72089</v>
       </c>
       <c r="C7" s="16">
-        <v>10362</v>
+        <v>3655</v>
       </c>
       <c r="D7" s="16">
-        <v>3083</v>
+        <v>38736</v>
       </c>
       <c r="E7" s="16">
-        <v>0</v>
+        <v>1363</v>
       </c>
       <c r="F7" s="16">
-        <v>1158</v>
+        <v>28335</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="16">
-        <v>12358</v>
+        <v>208315</v>
       </c>
       <c r="C8" s="16">
-        <v>10803</v>
+        <v>30577</v>
       </c>
       <c r="D8" s="16">
-        <v>1489</v>
+        <v>148108</v>
       </c>
       <c r="E8" s="16">
-        <v>0</v>
+        <v>2518</v>
       </c>
       <c r="F8" s="16">
-        <v>66</v>
+        <v>27112</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
@@ -1760,62 +1758,62 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="17">
-        <v>5027</v>
+        <v>48699</v>
       </c>
       <c r="C10" s="17">
-        <v>4958</v>
+        <v>6333</v>
       </c>
       <c r="D10" s="17">
-        <v>25</v>
+        <v>36486</v>
       </c>
       <c r="E10" s="17">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="F10" s="17">
-        <v>44</v>
+        <v>5705</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" s="17">
-        <v>2678</v>
+        <v>66705</v>
       </c>
       <c r="C11" s="17">
-        <v>2250</v>
+        <v>12799</v>
       </c>
       <c r="D11" s="17">
-        <v>428</v>
+        <v>41685</v>
       </c>
       <c r="E11" s="17">
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="F11" s="17">
-        <v>0</v>
+        <v>11681</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" s="17">
-        <v>4653</v>
+        <v>92911</v>
       </c>
       <c r="C12" s="17">
-        <v>3595</v>
+        <v>11445</v>
       </c>
       <c r="D12" s="17">
-        <v>1036</v>
+        <v>69937</v>
       </c>
       <c r="E12" s="17">
-        <v>0</v>
+        <v>1803</v>
       </c>
       <c r="F12" s="17">
-        <v>22</v>
+        <v>9726</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1826,9 +1824,9 @@
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
     </row>
-    <row r="14" spans="1:6" s="12" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1838,7 +1836,7 @@
     </row>
     <row r="15" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1923,7 +1921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B60D21DD-AD04-4DF0-8E2B-9D3F2E76692B}">
   <dimension ref="A1:F140"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -1934,77 +1932,77 @@
     <col min="7" max="16384" width="9.125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
+    <row r="1" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="25"/>
+      <c r="B3" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-    </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="24"/>
-      <c r="B3" s="25" t="s">
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="30"/>
+    </row>
+    <row r="4" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="25"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="29"/>
-    </row>
-    <row r="4" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="24"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" s="16">
-        <v>21166</v>
+        <v>173621</v>
       </c>
       <c r="C5" s="16">
-        <v>10363</v>
+        <v>17040</v>
       </c>
       <c r="D5" s="16">
-        <v>9729</v>
+        <v>117699</v>
       </c>
       <c r="E5" s="16">
-        <v>0</v>
+        <v>1452</v>
       </c>
       <c r="F5" s="16">
-        <v>1074</v>
+        <v>37430</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
@@ -2014,47 +2012,47 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="16">
-        <v>13865</v>
+        <v>64701</v>
       </c>
       <c r="C7" s="16">
-        <v>6471</v>
+        <v>4007</v>
       </c>
       <c r="D7" s="16">
-        <v>6418</v>
+        <v>38062</v>
       </c>
       <c r="E7" s="16">
-        <v>0</v>
+        <v>1233</v>
       </c>
       <c r="F7" s="16">
-        <v>976</v>
+        <v>21399</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="16">
-        <v>7301</v>
+        <v>108920</v>
       </c>
       <c r="C8" s="16">
-        <v>3892</v>
+        <v>13033</v>
       </c>
       <c r="D8" s="16">
-        <v>3311</v>
+        <v>79637</v>
       </c>
       <c r="E8" s="16">
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="F8" s="16">
-        <v>98</v>
+        <v>16031</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
@@ -2064,62 +2062,62 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="17">
-        <v>1612</v>
+        <v>34235</v>
       </c>
       <c r="C10" s="17">
-        <v>1306</v>
+        <v>2332</v>
       </c>
       <c r="D10" s="17">
-        <v>264</v>
+        <v>25915</v>
       </c>
       <c r="E10" s="17">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="F10" s="17">
-        <v>42</v>
+        <v>5932</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" s="17">
-        <v>3531</v>
+        <v>36180</v>
       </c>
       <c r="C11" s="17">
-        <v>1723</v>
+        <v>5236</v>
       </c>
       <c r="D11" s="17">
-        <v>1754</v>
+        <v>29222</v>
       </c>
       <c r="E11" s="17">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="F11" s="17">
-        <v>54</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" s="17">
-        <v>2158</v>
+        <v>38505</v>
       </c>
       <c r="C12" s="17">
-        <v>863</v>
+        <v>5465</v>
       </c>
       <c r="D12" s="17">
-        <v>1293</v>
+        <v>24500</v>
       </c>
       <c r="E12" s="17">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="F12" s="17">
-        <v>2</v>
+        <v>8494</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -2130,9 +2128,9 @@
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
     </row>
-    <row r="14" spans="1:6" s="12" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2142,7 +2140,7 @@
     </row>
     <row r="15" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2227,7 +2225,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2468D251-FE83-403D-9F03-4774593C4029}">
   <dimension ref="A1:F140"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -2238,192 +2236,192 @@
     <col min="7" max="16384" width="9.125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
+    <row r="1" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="25"/>
+      <c r="B3" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-    </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="24"/>
-      <c r="B3" s="25" t="s">
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="30"/>
+    </row>
+    <row r="4" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="25"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="29"/>
-    </row>
-    <row r="4" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="24"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" s="16">
-        <v>24033</v>
+        <v>121219</v>
       </c>
       <c r="C5" s="16">
-        <v>18384</v>
+        <v>7200</v>
       </c>
       <c r="D5" s="16">
-        <v>5649</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>0</v>
+        <v>84144</v>
+      </c>
+      <c r="E5" s="16">
+        <v>1175</v>
+      </c>
+      <c r="F5" s="16">
+        <v>28700</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
+        <v>1</v>
+      </c>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="16">
-        <v>12542</v>
+        <v>53314</v>
       </c>
       <c r="C7" s="16">
-        <v>9219</v>
+        <v>2529</v>
       </c>
       <c r="D7" s="16">
-        <v>3323</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>0</v>
+        <v>27334</v>
+      </c>
+      <c r="E7" s="16">
+        <v>1121</v>
+      </c>
+      <c r="F7" s="16">
+        <v>22330</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="16">
-        <v>11491</v>
-      </c>
-      <c r="C8" s="16">
-        <v>9165</v>
-      </c>
-      <c r="D8" s="16">
-        <v>2326</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="B8" s="17">
+        <v>67905</v>
+      </c>
+      <c r="C8" s="17">
+        <v>4671</v>
+      </c>
+      <c r="D8" s="17">
+        <v>56810</v>
+      </c>
+      <c r="E8" s="17">
+        <v>54</v>
+      </c>
+      <c r="F8" s="17">
+        <v>6370</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="17">
-        <v>6647</v>
+        <v>21854</v>
       </c>
       <c r="C10" s="17">
-        <v>5205</v>
+        <v>3015</v>
       </c>
       <c r="D10" s="17">
-        <v>1442</v>
-      </c>
-      <c r="E10" s="19" t="s">
+        <v>16347</v>
+      </c>
+      <c r="E10" s="17">
         <v>0</v>
       </c>
-      <c r="F10" s="19" t="s">
-        <v>0</v>
+      <c r="F10" s="17">
+        <v>2492</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" s="17">
-        <v>2616</v>
+        <v>20830</v>
       </c>
       <c r="C11" s="17">
-        <v>2186</v>
+        <v>757</v>
       </c>
       <c r="D11" s="17">
-        <v>430</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>0</v>
+        <v>18444</v>
+      </c>
+      <c r="E11" s="17">
+        <v>26</v>
+      </c>
+      <c r="F11" s="17">
+        <v>1603</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" s="17">
-        <v>2228</v>
+        <v>25221</v>
       </c>
       <c r="C12" s="17">
-        <v>1774</v>
+        <v>899</v>
       </c>
       <c r="D12" s="17">
-        <v>454</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>0</v>
+        <v>22019</v>
+      </c>
+      <c r="E12" s="17">
+        <v>28</v>
+      </c>
+      <c r="F12" s="17">
+        <v>2275</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -2434,9 +2432,9 @@
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
     </row>
-    <row r="14" spans="1:6" s="12" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2446,7 +2444,7 @@
     </row>
     <row r="15" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2531,7 +2529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2564EFC-DFAA-4373-8651-F0CCCBB8CAFF}">
   <dimension ref="A1:F131"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -2542,77 +2540,77 @@
     <col min="7" max="16384" width="9.125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
+    <row r="1" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="25"/>
+      <c r="B3" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-    </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="24"/>
-      <c r="B3" s="25" t="s">
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="30"/>
+    </row>
+    <row r="4" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="25"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="29"/>
-    </row>
-    <row r="4" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="24"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" s="16">
-        <v>23482</v>
+        <v>131829</v>
       </c>
       <c r="C5" s="16">
-        <v>21019</v>
+        <v>5800</v>
       </c>
       <c r="D5" s="16">
-        <v>2417</v>
+        <v>88152</v>
       </c>
       <c r="E5" s="16">
-        <v>0</v>
+        <v>748</v>
       </c>
       <c r="F5" s="16">
-        <v>46</v>
+        <v>37129</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
@@ -2622,47 +2620,47 @@
     </row>
     <row r="7" spans="1:6" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="16">
-        <v>13758</v>
+        <v>65160</v>
       </c>
       <c r="C7" s="16">
-        <v>12212</v>
+        <v>894</v>
       </c>
       <c r="D7" s="16">
-        <v>1524</v>
+        <v>30806</v>
       </c>
       <c r="E7" s="16">
-        <v>0</v>
+        <v>641</v>
       </c>
       <c r="F7" s="16">
-        <v>22</v>
+        <v>32819</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="16">
-        <v>9724</v>
+        <v>66669</v>
       </c>
       <c r="C8" s="16">
-        <v>8807</v>
+        <v>4906</v>
       </c>
       <c r="D8" s="16">
-        <v>893</v>
+        <v>57346</v>
       </c>
       <c r="E8" s="16">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="F8" s="16">
-        <v>24</v>
+        <v>4310</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
@@ -2672,62 +2670,62 @@
     </row>
     <row r="10" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="17">
-        <v>5113</v>
+        <v>25420</v>
       </c>
       <c r="C10" s="17">
-        <v>5022</v>
+        <v>2415</v>
       </c>
       <c r="D10" s="17">
-        <v>84</v>
+        <v>21184</v>
       </c>
       <c r="E10" s="17">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F10" s="17">
-        <v>7</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" s="17">
-        <v>1996</v>
+        <v>17427</v>
       </c>
       <c r="C11" s="17">
-        <v>1868</v>
+        <v>1057</v>
       </c>
       <c r="D11" s="17">
-        <v>115</v>
+        <v>14620</v>
       </c>
       <c r="E11" s="17">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F11" s="17">
-        <v>13</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" s="17">
-        <v>2615</v>
+        <v>23822</v>
       </c>
       <c r="C12" s="17">
-        <v>1917</v>
+        <v>1434</v>
       </c>
       <c r="D12" s="17">
-        <v>694</v>
+        <v>21542</v>
       </c>
       <c r="E12" s="17">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F12" s="17">
-        <v>4</v>
+        <v>840</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -2738,9 +2736,9 @@
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
     </row>
-    <row r="14" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2750,7 +2748,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2787,7 +2785,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27871740-2DF6-403D-BA0E-06B64C8E36D6}">
   <dimension ref="A1:F140"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -2798,77 +2796,77 @@
     <col min="7" max="16384" width="9.125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
+    <row r="1" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="25"/>
+      <c r="B3" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-    </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="24"/>
-      <c r="B3" s="25" t="s">
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="30"/>
+    </row>
+    <row r="4" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="25"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="29"/>
-    </row>
-    <row r="4" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="24"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" s="14">
-        <v>19452</v>
+        <v>106729</v>
       </c>
       <c r="C5" s="14">
-        <v>14028</v>
+        <v>5424</v>
       </c>
       <c r="D5" s="14">
-        <v>4752</v>
+        <v>69960</v>
       </c>
       <c r="E5" s="14">
-        <v>96</v>
+        <v>369</v>
       </c>
       <c r="F5" s="14">
-        <v>576</v>
+        <v>30976</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
@@ -2878,47 +2876,47 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="14">
-        <v>14129</v>
+        <v>46322</v>
       </c>
       <c r="C7" s="14">
-        <v>9595</v>
+        <v>1266</v>
       </c>
       <c r="D7" s="14">
-        <v>3862</v>
+        <v>20455</v>
       </c>
       <c r="E7" s="14">
-        <v>96</v>
+        <v>226</v>
       </c>
       <c r="F7" s="14">
-        <v>576</v>
+        <v>24375</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="14">
-        <v>5323</v>
+        <v>60407</v>
       </c>
       <c r="C8" s="14">
-        <v>4433</v>
+        <v>4158</v>
       </c>
       <c r="D8" s="14">
-        <v>890</v>
+        <v>49505</v>
       </c>
       <c r="E8" s="14">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="F8" s="14">
-        <v>0</v>
+        <v>6601</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
@@ -2928,62 +2926,62 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="15">
-        <v>1890</v>
+        <v>22327</v>
       </c>
       <c r="C10" s="15">
-        <v>1655</v>
+        <v>1521</v>
       </c>
       <c r="D10" s="15">
-        <v>235</v>
+        <v>19700</v>
       </c>
       <c r="E10" s="15">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F10" s="15">
-        <v>0</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" s="15">
-        <v>1727</v>
+        <v>17525</v>
       </c>
       <c r="C11" s="15">
-        <v>1558</v>
+        <v>1146</v>
       </c>
       <c r="D11" s="15">
-        <v>169</v>
+        <v>11439</v>
       </c>
       <c r="E11" s="15">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="F11" s="15">
-        <v>0</v>
+        <v>4827</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" s="15">
-        <v>1706</v>
+        <v>20555</v>
       </c>
       <c r="C12" s="15">
-        <v>1220</v>
+        <v>1491</v>
       </c>
       <c r="D12" s="15">
-        <v>486</v>
+        <v>18366</v>
       </c>
       <c r="E12" s="15">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F12" s="15">
-        <v>0</v>
+        <v>684</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -2994,9 +2992,9 @@
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
     </row>
-    <row r="14" spans="1:6" s="12" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -3006,7 +3004,7 @@
     </row>
     <row r="15" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -3091,7 +3089,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC9604E1-4BCA-415F-A6F5-70DF5380C128}">
   <dimension ref="A1:F140"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -3102,192 +3100,192 @@
     <col min="7" max="16384" width="9.125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
+    <row r="1" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="25"/>
+      <c r="B3" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-    </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="24"/>
-      <c r="B3" s="25" t="s">
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="30"/>
+    </row>
+    <row r="4" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="25"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="29"/>
-    </row>
-    <row r="4" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="24"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="6">
-        <v>93952</v>
-      </c>
-      <c r="C5" s="6">
-        <v>53319</v>
-      </c>
-      <c r="D5" s="6">
-        <v>1217</v>
-      </c>
-      <c r="E5" s="6">
-        <v>6495</v>
-      </c>
-      <c r="F5" s="6">
-        <v>32921</v>
+        <v>0</v>
+      </c>
+      <c r="B5" s="18">
+        <v>490209</v>
+      </c>
+      <c r="C5" s="18">
+        <v>212101</v>
+      </c>
+      <c r="D5" s="18">
+        <v>79642</v>
+      </c>
+      <c r="E5" s="18">
+        <v>84375</v>
+      </c>
+      <c r="F5" s="18">
+        <v>114091</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
     </row>
     <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="6">
-        <v>56410</v>
-      </c>
-      <c r="C7" s="6">
-        <v>20226</v>
-      </c>
-      <c r="D7" s="6">
-        <v>1138</v>
-      </c>
-      <c r="E7" s="6">
-        <v>2495</v>
-      </c>
-      <c r="F7" s="6">
-        <v>32551</v>
+        <v>2</v>
+      </c>
+      <c r="B7" s="18">
+        <v>227795</v>
+      </c>
+      <c r="C7" s="18">
+        <v>55110</v>
+      </c>
+      <c r="D7" s="18">
+        <v>26079</v>
+      </c>
+      <c r="E7" s="18">
+        <v>67749</v>
+      </c>
+      <c r="F7" s="18">
+        <v>78857</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="6">
-        <v>37542</v>
-      </c>
-      <c r="C8" s="6">
-        <v>33093</v>
-      </c>
-      <c r="D8" s="6">
-        <v>79</v>
-      </c>
-      <c r="E8" s="6">
-        <v>4000</v>
-      </c>
-      <c r="F8" s="6">
-        <v>370</v>
+        <v>3</v>
+      </c>
+      <c r="B8" s="18">
+        <v>262414</v>
+      </c>
+      <c r="C8" s="18">
+        <v>156991</v>
+      </c>
+      <c r="D8" s="18">
+        <v>53563</v>
+      </c>
+      <c r="E8" s="18">
+        <v>16626</v>
+      </c>
+      <c r="F8" s="18">
+        <v>35234</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="9">
-        <v>7289</v>
-      </c>
-      <c r="C10" s="9">
-        <v>7049</v>
-      </c>
-      <c r="D10" s="9">
-        <v>13</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" s="9">
-        <v>227</v>
+        <v>4</v>
+      </c>
+      <c r="B10" s="21">
+        <v>20554</v>
+      </c>
+      <c r="C10" s="21">
+        <v>11972</v>
+      </c>
+      <c r="D10" s="21">
+        <v>1582</v>
+      </c>
+      <c r="E10" s="21">
+        <v>66</v>
+      </c>
+      <c r="F10" s="21">
+        <v>6934</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="9">
-        <v>15758</v>
-      </c>
-      <c r="C11" s="9">
-        <v>15578</v>
-      </c>
-      <c r="D11" s="9">
-        <v>37</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11" s="9">
-        <v>143</v>
+        <v>5</v>
+      </c>
+      <c r="B11" s="21">
+        <v>84132</v>
+      </c>
+      <c r="C11" s="21">
+        <v>73902</v>
+      </c>
+      <c r="D11" s="21">
+        <v>6125</v>
+      </c>
+      <c r="E11" s="21">
+        <v>758</v>
+      </c>
+      <c r="F11" s="21">
+        <v>3347</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="9">
-        <v>14495</v>
-      </c>
-      <c r="C12" s="9">
-        <v>10466</v>
-      </c>
-      <c r="D12" s="9">
-        <v>29</v>
-      </c>
-      <c r="E12" s="9">
-        <v>4000</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="B12" s="21">
+        <v>157728</v>
+      </c>
+      <c r="C12" s="21">
+        <v>71117</v>
+      </c>
+      <c r="D12" s="21">
+        <v>45856</v>
+      </c>
+      <c r="E12" s="21">
+        <v>15802</v>
+      </c>
+      <c r="F12" s="21">
+        <v>24953</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -3298,9 +3296,9 @@
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
     </row>
-    <row r="14" spans="1:6" s="12" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -3310,7 +3308,7 @@
     </row>
     <row r="15" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -3395,7 +3393,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9BE56DA-5E85-4D55-A726-191403B71ACE}">
   <dimension ref="A1:F140"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -3406,192 +3404,192 @@
     <col min="7" max="16384" width="9.125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
+    <row r="1" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="25"/>
+      <c r="B3" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-    </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="24"/>
-      <c r="B3" s="25" t="s">
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="30"/>
+    </row>
+    <row r="4" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="25"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="29"/>
-    </row>
-    <row r="4" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="24"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="6">
-        <v>151698</v>
-      </c>
-      <c r="C5" s="6">
-        <v>144878</v>
-      </c>
-      <c r="D5" s="6">
-        <v>5040</v>
-      </c>
-      <c r="E5" s="6">
-        <v>96</v>
-      </c>
-      <c r="F5" s="6">
-        <v>1684</v>
+        <v>0</v>
+      </c>
+      <c r="B5" s="18">
+        <v>1886439</v>
+      </c>
+      <c r="C5" s="18">
+        <v>1291404</v>
+      </c>
+      <c r="D5" s="18">
+        <v>187443</v>
+      </c>
+      <c r="E5" s="18">
+        <v>4396</v>
+      </c>
+      <c r="F5" s="18">
+        <v>403196</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
     </row>
     <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="6">
-        <v>38974</v>
-      </c>
-      <c r="C7" s="6">
-        <v>33544</v>
-      </c>
-      <c r="D7" s="6">
-        <v>4410</v>
-      </c>
-      <c r="E7" s="6">
-        <v>27</v>
-      </c>
-      <c r="F7" s="6">
-        <v>993</v>
+        <v>2</v>
+      </c>
+      <c r="B7" s="18">
+        <v>337514</v>
+      </c>
+      <c r="C7" s="18">
+        <v>167711</v>
+      </c>
+      <c r="D7" s="18">
+        <v>52002</v>
+      </c>
+      <c r="E7" s="18">
+        <v>1045</v>
+      </c>
+      <c r="F7" s="18">
+        <v>116756</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="6">
-        <v>112724</v>
-      </c>
-      <c r="C8" s="6">
-        <v>111334</v>
-      </c>
-      <c r="D8" s="6">
-        <v>630</v>
-      </c>
-      <c r="E8" s="6">
-        <v>69</v>
-      </c>
-      <c r="F8" s="6">
-        <v>691</v>
+        <v>3</v>
+      </c>
+      <c r="B8" s="18">
+        <v>1548925</v>
+      </c>
+      <c r="C8" s="18">
+        <v>1123693</v>
+      </c>
+      <c r="D8" s="18">
+        <v>135441</v>
+      </c>
+      <c r="E8" s="18">
+        <v>3351</v>
+      </c>
+      <c r="F8" s="18">
+        <v>286440</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="9">
-        <v>12089</v>
-      </c>
-      <c r="C10" s="9">
-        <v>11841</v>
-      </c>
-      <c r="D10" s="9">
-        <v>133</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" s="9">
-        <v>115</v>
+        <v>4</v>
+      </c>
+      <c r="B10" s="21">
+        <v>232615</v>
+      </c>
+      <c r="C10" s="21">
+        <v>159978</v>
+      </c>
+      <c r="D10" s="21">
+        <v>18730</v>
+      </c>
+      <c r="E10" s="21">
+        <v>662</v>
+      </c>
+      <c r="F10" s="21">
+        <v>53245</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="9">
-        <v>63275</v>
-      </c>
-      <c r="C11" s="9">
-        <v>62271</v>
-      </c>
-      <c r="D11" s="9">
-        <v>384</v>
-      </c>
-      <c r="E11" s="9">
-        <v>69</v>
-      </c>
-      <c r="F11" s="9">
-        <v>551</v>
+        <v>5</v>
+      </c>
+      <c r="B11" s="21">
+        <v>597839</v>
+      </c>
+      <c r="C11" s="21">
+        <v>437648</v>
+      </c>
+      <c r="D11" s="21">
+        <v>42562</v>
+      </c>
+      <c r="E11" s="21">
+        <v>1124</v>
+      </c>
+      <c r="F11" s="21">
+        <v>116505</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="9">
-        <v>37360</v>
-      </c>
-      <c r="C12" s="9">
-        <v>37222</v>
-      </c>
-      <c r="D12" s="9">
-        <v>113</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F12" s="9">
-        <v>25</v>
+        <v>6</v>
+      </c>
+      <c r="B12" s="21">
+        <v>718471</v>
+      </c>
+      <c r="C12" s="21">
+        <v>526067</v>
+      </c>
+      <c r="D12" s="21">
+        <v>74149</v>
+      </c>
+      <c r="E12" s="21">
+        <v>1565</v>
+      </c>
+      <c r="F12" s="21">
+        <v>116690</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -3602,9 +3600,9 @@
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
     </row>
-    <row r="14" spans="1:6" s="12" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -3614,7 +3612,7 @@
     </row>
     <row r="15" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -3699,7 +3697,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A51D2F29-8F00-4AD7-B791-61ED1F953FCF}">
   <dimension ref="A1:F140"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -3710,77 +3708,77 @@
     <col min="7" max="16384" width="9.125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
+    <row r="1" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="25"/>
+      <c r="B3" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-    </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="24"/>
-      <c r="B3" s="25" t="s">
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="30"/>
+    </row>
+    <row r="4" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="25"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="29"/>
-    </row>
-    <row r="4" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="24"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" s="14">
-        <v>184163</v>
+        <v>1743938</v>
       </c>
       <c r="C5" s="14">
-        <v>169477</v>
+        <v>1212748</v>
       </c>
       <c r="D5" s="14">
-        <v>10073</v>
+        <v>266120</v>
       </c>
       <c r="E5" s="14">
-        <v>118</v>
+        <v>3840</v>
       </c>
       <c r="F5" s="14">
-        <v>4495</v>
+        <v>261230</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
@@ -3790,47 +3788,47 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="14">
-        <v>48887</v>
+        <v>255354</v>
       </c>
       <c r="C7" s="14">
-        <v>40329</v>
+        <v>96351</v>
       </c>
       <c r="D7" s="14">
-        <v>8124</v>
+        <v>87184</v>
       </c>
       <c r="E7" s="14">
-        <v>0</v>
+        <v>939</v>
       </c>
       <c r="F7" s="14">
-        <v>434</v>
+        <v>70880</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="14">
-        <v>135276</v>
+        <v>1488584</v>
       </c>
       <c r="C8" s="14">
-        <v>129148</v>
+        <v>1116397</v>
       </c>
       <c r="D8" s="14">
-        <v>1949</v>
+        <v>178936</v>
       </c>
       <c r="E8" s="14">
-        <v>118</v>
+        <v>2901</v>
       </c>
       <c r="F8" s="14">
-        <v>4061</v>
+        <v>190350</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
@@ -3840,62 +3838,62 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="15">
-        <v>27087</v>
+        <v>204360</v>
       </c>
       <c r="C10" s="15">
-        <v>24843</v>
+        <v>144692</v>
       </c>
       <c r="D10" s="15">
-        <v>163</v>
+        <v>30579</v>
       </c>
       <c r="E10" s="15">
-        <v>0</v>
+        <v>719</v>
       </c>
       <c r="F10" s="15">
-        <v>2081</v>
+        <v>28370</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" s="15">
-        <v>84440</v>
+        <v>505817</v>
       </c>
       <c r="C11" s="15">
-        <v>81830</v>
+        <v>366222</v>
       </c>
       <c r="D11" s="15">
-        <v>592</v>
+        <v>63081</v>
       </c>
       <c r="E11" s="15">
-        <v>118</v>
+        <v>1322</v>
       </c>
       <c r="F11" s="15">
-        <v>1900</v>
+        <v>75192</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" s="15">
-        <v>23749</v>
+        <v>778407</v>
       </c>
       <c r="C12" s="15">
-        <v>22475</v>
+        <v>605483</v>
       </c>
       <c r="D12" s="15">
-        <v>1194</v>
+        <v>85276</v>
       </c>
       <c r="E12" s="15">
-        <v>0</v>
+        <v>860</v>
       </c>
       <c r="F12" s="15">
-        <v>80</v>
+        <v>86788</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -3906,9 +3904,9 @@
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
     </row>
-    <row r="14" spans="1:6" s="12" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -3918,7 +3916,7 @@
     </row>
     <row r="15" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -4003,7 +4001,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6258586-A9F2-46F0-B9EC-5C5035C442B1}">
   <dimension ref="A1:F140"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -4014,77 +4012,77 @@
     <col min="7" max="16384" width="9.125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
+    <row r="1" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="25"/>
+      <c r="B3" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-    </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="24"/>
-      <c r="B3" s="25" t="s">
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="30"/>
+    </row>
+    <row r="4" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="25"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="29"/>
-    </row>
-    <row r="4" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="24"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" s="14">
-        <v>174887</v>
+        <v>1626524</v>
       </c>
       <c r="C5" s="14">
-        <v>156956</v>
+        <v>1083030</v>
       </c>
       <c r="D5" s="14">
-        <v>14940</v>
+        <v>364691</v>
       </c>
       <c r="E5" s="14">
-        <v>0</v>
+        <v>6792</v>
       </c>
       <c r="F5" s="14">
-        <v>2991</v>
+        <v>172011</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
@@ -4094,47 +4092,47 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="14">
-        <v>48525</v>
+        <v>244942</v>
       </c>
       <c r="C7" s="14">
-        <v>35460</v>
+        <v>62571</v>
       </c>
       <c r="D7" s="14">
-        <v>13016</v>
+        <v>115558</v>
       </c>
       <c r="E7" s="14">
-        <v>0</v>
+        <v>2311</v>
       </c>
       <c r="F7" s="14">
-        <v>49</v>
+        <v>64502</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="14">
-        <v>126362</v>
+        <v>1381582</v>
       </c>
       <c r="C8" s="14">
-        <v>121496</v>
+        <v>1020459</v>
       </c>
       <c r="D8" s="14">
-        <v>1924</v>
+        <v>249133</v>
       </c>
       <c r="E8" s="14">
-        <v>0</v>
+        <v>4481</v>
       </c>
       <c r="F8" s="14">
-        <v>2942</v>
+        <v>107509</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
@@ -4144,62 +4142,62 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="15">
-        <v>23176</v>
+        <v>117913</v>
       </c>
       <c r="C10" s="15">
-        <v>21213</v>
+        <v>69075</v>
       </c>
       <c r="D10" s="15">
-        <v>1308</v>
+        <v>39744</v>
       </c>
       <c r="E10" s="15">
-        <v>0</v>
+        <v>683</v>
       </c>
       <c r="F10" s="15">
-        <v>655</v>
+        <v>8411</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" s="15">
-        <v>83312</v>
+        <v>434980</v>
       </c>
       <c r="C11" s="15">
-        <v>80641</v>
+        <v>296677</v>
       </c>
       <c r="D11" s="15">
-        <v>537</v>
+        <v>84164</v>
       </c>
       <c r="E11" s="15">
-        <v>0</v>
+        <v>2184</v>
       </c>
       <c r="F11" s="15">
-        <v>2134</v>
+        <v>51955</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" s="15">
-        <v>19874</v>
+        <v>828689</v>
       </c>
       <c r="C12" s="15">
-        <v>19642</v>
+        <v>654707</v>
       </c>
       <c r="D12" s="15">
-        <v>79</v>
+        <v>125225</v>
       </c>
       <c r="E12" s="15">
-        <v>0</v>
+        <v>1614</v>
       </c>
       <c r="F12" s="15">
-        <v>153</v>
+        <v>47143</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -4210,9 +4208,9 @@
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
     </row>
-    <row r="14" spans="1:6" s="12" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -4222,7 +4220,7 @@
     </row>
     <row r="15" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -4307,7 +4305,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03D9CC16-D354-42D2-B4B8-898DD70989E8}">
   <dimension ref="A1:F140"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -4318,77 +4316,77 @@
     <col min="7" max="16384" width="9.125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
+    <row r="1" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="25"/>
+      <c r="B3" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-    </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="24"/>
-      <c r="B3" s="25" t="s">
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="30"/>
+    </row>
+    <row r="4" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="25"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="29"/>
-    </row>
-    <row r="4" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="24"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" s="16">
-        <v>143871</v>
+        <v>1113484</v>
       </c>
       <c r="C5" s="16">
-        <v>137857</v>
+        <v>647257</v>
       </c>
       <c r="D5" s="16">
-        <v>2944</v>
+        <v>274054</v>
       </c>
       <c r="E5" s="16">
-        <v>0</v>
+        <v>4768</v>
       </c>
       <c r="F5" s="16">
-        <v>3070</v>
+        <v>187405</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
@@ -4398,47 +4396,47 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="16">
-        <v>46045</v>
+        <v>232390</v>
       </c>
       <c r="C7" s="16">
-        <v>43295</v>
+        <v>71727</v>
       </c>
       <c r="D7" s="16">
-        <v>2105</v>
+        <v>80348</v>
       </c>
       <c r="E7" s="16">
-        <v>0</v>
+        <v>2117</v>
       </c>
       <c r="F7" s="16">
-        <v>645</v>
+        <v>78198</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="16">
-        <v>97826</v>
+        <v>881094</v>
       </c>
       <c r="C8" s="16">
-        <v>94562</v>
+        <v>575530</v>
       </c>
       <c r="D8" s="16">
-        <v>839</v>
+        <v>193706</v>
       </c>
       <c r="E8" s="16">
-        <v>0</v>
+        <v>2651</v>
       </c>
       <c r="F8" s="16">
-        <v>2425</v>
+        <v>109207</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
@@ -4448,62 +4446,62 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="17">
-        <v>18647</v>
+        <v>112619</v>
       </c>
       <c r="C10" s="17">
-        <v>18476</v>
+        <v>50734</v>
       </c>
       <c r="D10" s="17">
-        <v>162</v>
+        <v>48583</v>
       </c>
       <c r="E10" s="17">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="F10" s="17">
-        <v>9</v>
+        <v>12822</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" s="17">
-        <v>51785</v>
+        <v>228937</v>
       </c>
       <c r="C11" s="17">
-        <v>49643</v>
+        <v>126211</v>
       </c>
       <c r="D11" s="17">
-        <v>453</v>
+        <v>64291</v>
       </c>
       <c r="E11" s="17">
-        <v>0</v>
+        <v>1480</v>
       </c>
       <c r="F11" s="17">
-        <v>1689</v>
+        <v>36955</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" s="17">
-        <v>27394</v>
+        <v>539538</v>
       </c>
       <c r="C12" s="17">
-        <v>26443</v>
+        <v>398585</v>
       </c>
       <c r="D12" s="17">
-        <v>224</v>
+        <v>80832</v>
       </c>
       <c r="E12" s="17">
-        <v>0</v>
+        <v>691</v>
       </c>
       <c r="F12" s="17">
-        <v>727</v>
+        <v>59430</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -4514,9 +4512,9 @@
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
     </row>
-    <row r="14" spans="1:6" s="12" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -4526,7 +4524,7 @@
     </row>
     <row r="15" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -4611,7 +4609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6929BCEB-0BA1-4220-9805-3E81EDBAEC41}">
   <dimension ref="A1:F140"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -4622,77 +4620,77 @@
     <col min="7" max="16384" width="9.125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
+    <row r="1" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="25"/>
+      <c r="B3" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-    </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="24"/>
-      <c r="B3" s="25" t="s">
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="30"/>
+    </row>
+    <row r="4" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="25"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="29"/>
-    </row>
-    <row r="4" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="24"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" s="16">
-        <v>121313</v>
+        <v>787866</v>
       </c>
       <c r="C5" s="16">
-        <v>115542</v>
+        <v>331754</v>
       </c>
       <c r="D5" s="16">
-        <v>2373</v>
+        <v>261837</v>
       </c>
       <c r="E5" s="16">
-        <v>0</v>
+        <v>4082</v>
       </c>
       <c r="F5" s="16">
-        <v>3398</v>
+        <v>190193</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
@@ -4702,47 +4700,47 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="16">
-        <v>40546</v>
+        <v>167245</v>
       </c>
       <c r="C7" s="16">
-        <v>36991</v>
+        <v>42058</v>
       </c>
       <c r="D7" s="16">
-        <v>1806</v>
+        <v>59071</v>
       </c>
       <c r="E7" s="16">
-        <v>0</v>
+        <v>1264</v>
       </c>
       <c r="F7" s="16">
-        <v>1749</v>
+        <v>64852</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="16">
-        <v>80767</v>
+        <v>620621</v>
       </c>
       <c r="C8" s="16">
-        <v>78551</v>
+        <v>289696</v>
       </c>
       <c r="D8" s="16">
-        <v>567</v>
+        <v>202766</v>
       </c>
       <c r="E8" s="16">
-        <v>0</v>
+        <v>2818</v>
       </c>
       <c r="F8" s="16">
-        <v>1649</v>
+        <v>125341</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
@@ -4752,62 +4750,62 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="17">
-        <v>15366</v>
+        <v>95005</v>
       </c>
       <c r="C10" s="17">
-        <v>15265</v>
+        <v>25530</v>
       </c>
       <c r="D10" s="17">
-        <v>95</v>
+        <v>48427</v>
       </c>
       <c r="E10" s="17">
-        <v>0</v>
+        <v>167</v>
       </c>
       <c r="F10" s="17">
-        <v>6</v>
+        <v>20881</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" s="17">
-        <v>42532</v>
+        <v>170719</v>
       </c>
       <c r="C11" s="17">
-        <v>40798</v>
+        <v>68469</v>
       </c>
       <c r="D11" s="17">
-        <v>443</v>
+        <v>62704</v>
       </c>
       <c r="E11" s="17">
-        <v>0</v>
+        <v>2035</v>
       </c>
       <c r="F11" s="17">
-        <v>1291</v>
+        <v>37511</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" s="17">
-        <v>22869</v>
+        <v>354897</v>
       </c>
       <c r="C12" s="17">
-        <v>22488</v>
+        <v>195697</v>
       </c>
       <c r="D12" s="17">
-        <v>29</v>
+        <v>91635</v>
       </c>
       <c r="E12" s="17">
-        <v>0</v>
+        <v>616</v>
       </c>
       <c r="F12" s="17">
-        <v>352</v>
+        <v>66949</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -4818,9 +4816,9 @@
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
     </row>
-    <row r="14" spans="1:6" s="12" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -4830,7 +4828,7 @@
     </row>
     <row r="15" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -4915,7 +4913,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F01D7E-2F16-460D-8170-C8B96A5AE1D6}">
   <dimension ref="A1:F140"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -4926,192 +4924,192 @@
     <col min="7" max="16384" width="9.125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
+    <row r="1" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="25"/>
+      <c r="B3" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-    </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="24"/>
-      <c r="B3" s="25" t="s">
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="30"/>
+    </row>
+    <row r="4" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="25"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="29"/>
-    </row>
-    <row r="4" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="24"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" s="16">
-        <v>112512</v>
+        <v>539958</v>
       </c>
       <c r="C5" s="16">
-        <v>101522</v>
+        <v>133430</v>
       </c>
       <c r="D5" s="16">
-        <v>9762</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="18">
-        <v>1228</v>
+        <v>258401</v>
+      </c>
+      <c r="E5" s="16">
+        <v>4072</v>
+      </c>
+      <c r="F5" s="16">
+        <v>144055</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="16">
-        <v>54426</v>
+        <v>118490</v>
       </c>
       <c r="C7" s="16">
-        <v>46772</v>
+        <v>34540</v>
       </c>
       <c r="D7" s="16">
-        <v>6860</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="18">
-        <v>794</v>
+        <v>44073</v>
+      </c>
+      <c r="E7" s="16">
+        <v>851</v>
+      </c>
+      <c r="F7" s="16">
+        <v>39026</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="16">
-        <v>58086</v>
+        <v>421468</v>
       </c>
       <c r="C8" s="16">
-        <v>54750</v>
+        <v>98890</v>
       </c>
       <c r="D8" s="16">
-        <v>2902</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="18">
-        <v>434</v>
+        <v>214328</v>
+      </c>
+      <c r="E8" s="16">
+        <v>3221</v>
+      </c>
+      <c r="F8" s="16">
+        <v>105029</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="17">
-        <v>5734</v>
+        <v>72142</v>
       </c>
       <c r="C10" s="17">
-        <v>5535</v>
+        <v>17941</v>
       </c>
       <c r="D10" s="17">
-        <v>199</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>0</v>
+        <v>42070</v>
+      </c>
+      <c r="E10" s="17">
+        <v>707</v>
+      </c>
+      <c r="F10" s="17">
+        <v>11424</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" s="17">
-        <v>22780</v>
+        <v>148139</v>
       </c>
       <c r="C11" s="17">
-        <v>21167</v>
+        <v>37283</v>
       </c>
       <c r="D11" s="17">
-        <v>1201</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11" s="19">
-        <v>412</v>
+        <v>73751</v>
+      </c>
+      <c r="E11" s="17">
+        <v>1925</v>
+      </c>
+      <c r="F11" s="17">
+        <v>35180</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" s="17">
-        <v>29572</v>
+        <v>201187</v>
       </c>
       <c r="C12" s="17">
-        <v>28048</v>
+        <v>43666</v>
       </c>
       <c r="D12" s="17">
-        <v>1502</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F12" s="19">
-        <v>22</v>
+        <v>98507</v>
+      </c>
+      <c r="E12" s="17">
+        <v>589</v>
+      </c>
+      <c r="F12" s="17">
+        <v>58425</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -5122,9 +5120,9 @@
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
     </row>
-    <row r="14" spans="1:6" s="12" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -5134,7 +5132,7 @@
     </row>
     <row r="15" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -5219,7 +5217,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F140"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -5230,77 +5228,77 @@
     <col min="7" max="16384" width="9.125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
+    <row r="1" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="25"/>
+      <c r="B3" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-    </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="24"/>
-      <c r="B3" s="25" t="s">
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="30"/>
+    </row>
+    <row r="4" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="25"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="29"/>
-    </row>
-    <row r="4" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="24"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" s="16">
-        <v>99324</v>
+        <v>485242</v>
       </c>
       <c r="C5" s="16">
-        <v>82573</v>
+        <v>128566</v>
       </c>
       <c r="D5" s="16">
-        <v>14415</v>
+        <v>180637</v>
       </c>
       <c r="E5" s="16">
-        <v>0</v>
+        <v>2374</v>
       </c>
       <c r="F5" s="16">
-        <v>2336</v>
+        <v>173665</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
@@ -5310,47 +5308,47 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="16">
-        <v>51634</v>
+        <v>113216</v>
       </c>
       <c r="C7" s="16">
-        <v>39194</v>
+        <v>37168</v>
       </c>
       <c r="D7" s="16">
-        <v>10846</v>
+        <v>37212</v>
       </c>
       <c r="E7" s="16">
-        <v>0</v>
+        <v>904</v>
       </c>
       <c r="F7" s="16">
-        <v>1594</v>
+        <v>37932</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="16">
-        <v>47690</v>
+        <v>372026</v>
       </c>
       <c r="C8" s="16">
-        <v>43379</v>
+        <v>91398</v>
       </c>
       <c r="D8" s="16">
-        <v>3569</v>
+        <v>143425</v>
       </c>
       <c r="E8" s="16">
-        <v>0</v>
+        <v>1470</v>
       </c>
       <c r="F8" s="16">
-        <v>742</v>
+        <v>135733</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
@@ -5360,62 +5358,62 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="17">
-        <v>6718</v>
+        <v>61211</v>
       </c>
       <c r="C10" s="17">
-        <v>5667</v>
+        <v>20461</v>
       </c>
       <c r="D10" s="17">
-        <v>1003</v>
+        <v>28542</v>
       </c>
       <c r="E10" s="17">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="F10" s="17">
-        <v>48</v>
+        <v>12036</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" s="17">
-        <v>15342</v>
+        <v>113134</v>
       </c>
       <c r="C11" s="17">
-        <v>13017</v>
+        <v>38189</v>
       </c>
       <c r="D11" s="17">
-        <v>2029</v>
+        <v>51866</v>
       </c>
       <c r="E11" s="17">
-        <v>0</v>
+        <v>1156</v>
       </c>
       <c r="F11" s="17">
-        <v>296</v>
+        <v>21923</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" s="17">
-        <v>25630</v>
+        <v>197681</v>
       </c>
       <c r="C12" s="17">
-        <v>24695</v>
+        <v>32748</v>
       </c>
       <c r="D12" s="17">
-        <v>537</v>
+        <v>63017</v>
       </c>
       <c r="E12" s="17">
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="F12" s="17">
-        <v>398</v>
+        <v>101774</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -5426,9 +5424,9 @@
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
     </row>
-    <row r="14" spans="1:6" s="12" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -5438,7 +5436,7 @@
     </row>
     <row r="15" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
